--- a/file_rename/Clients.xlsx
+++ b/file_rename/Clients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TakeControl\repos\staff_salary\file_rename\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044552B3-9A77-4A5D-98C6-79D27841895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7783F5A-5926-4CEE-A4D9-3ACB4829A2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="13650" xr2:uid="{741CD533-40A7-48C4-B8D2-1758F7105206}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ЕИК</t>
   </si>
@@ -42,21 +42,23 @@
     <t>ИМЕ</t>
   </si>
   <si>
-    <t>д</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>cc</t>
+    <t>ИМЕ НА ФИРМАТА</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,8 +86,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -400,44 +408,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB242ADA-AC6C-4587-9956-261059B2CD72}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="32.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>1111111111</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
